--- a/data/trans_orig/P41C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D22FE7-B15A-4031-AC1C-3735E247942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF52E60-16A6-4D5C-AF6B-60478B176F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDB26BEC-5CD7-48A9-9555-36FF51E095CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F9486C5-13B9-43BB-9042-ABD704209673}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="106">
   <si>
     <t>Población con dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,244 +104,253 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,8 +765,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9250AFB3-893D-46EF-AE5D-D481887C534B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381AF23-4269-49D3-A821-C0CDF62C92EB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -928,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>57683</v>
+        <v>60627</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -943,7 +952,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>72360</v>
+        <v>64150</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -958,7 +967,7 @@
         <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>130043</v>
+        <v>124776</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -979,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>57683</v>
+        <v>60627</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -994,7 +1003,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="7">
-        <v>72360</v>
+        <v>64150</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1009,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>130043</v>
+        <v>124776</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1032,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>5789</v>
+        <v>5617</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1047,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>7687</v>
+        <v>6768</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1062,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>13477</v>
+        <v>12385</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1083,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>129238</v>
+        <v>129812</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1098,7 +1107,7 @@
         <v>149</v>
       </c>
       <c r="I8" s="7">
-        <v>152564</v>
+        <v>139660</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1113,7 +1122,7 @@
         <v>239</v>
       </c>
       <c r="N8" s="7">
-        <v>281801</v>
+        <v>269473</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1134,7 +1143,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>135027</v>
+        <v>135429</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1149,7 +1158,7 @@
         <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>160251</v>
+        <v>146428</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1164,7 +1173,7 @@
         <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>295278</v>
+        <v>281858</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1187,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>10475</v>
+        <v>9842</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1202,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>12871</v>
+        <v>11907</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1217,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>23346</v>
+        <v>21749</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>48</v>
@@ -1238,7 +1247,7 @@
         <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>195920</v>
+        <v>187760</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1253,7 +1262,7 @@
         <v>328</v>
       </c>
       <c r="I11" s="7">
-        <v>220859</v>
+        <v>204878</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1268,7 +1277,7 @@
         <v>515</v>
       </c>
       <c r="N11" s="7">
-        <v>416778</v>
+        <v>392638</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>57</v>
@@ -1289,7 +1298,7 @@
         <v>197</v>
       </c>
       <c r="D12" s="7">
-        <v>206395</v>
+        <v>197602</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1304,7 +1313,7 @@
         <v>345</v>
       </c>
       <c r="I12" s="7">
-        <v>233730</v>
+        <v>216785</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1319,7 +1328,7 @@
         <v>542</v>
       </c>
       <c r="N12" s="7">
-        <v>440124</v>
+        <v>414387</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1342,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>11516</v>
+        <v>11033</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -1357,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>11499</v>
+        <v>10762</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -1372,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>23015</v>
+        <v>21794</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>67</v>
@@ -1393,7 +1402,7 @@
         <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>263298</v>
+        <v>443985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -1408,7 +1417,7 @@
         <v>412</v>
       </c>
       <c r="I14" s="7">
-        <v>253746</v>
+        <v>235407</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -1423,7 +1432,7 @@
         <v>637</v>
       </c>
       <c r="N14" s="7">
-        <v>517044</v>
+        <v>679393</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>76</v>
@@ -1444,7 +1453,7 @@
         <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>274814</v>
+        <v>455018</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1459,7 +1468,7 @@
         <v>429</v>
       </c>
       <c r="I15" s="7">
-        <v>265245</v>
+        <v>246169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1474,7 +1483,7 @@
         <v>664</v>
       </c>
       <c r="N15" s="7">
-        <v>540059</v>
+        <v>701187</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1506,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1521,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1548,13 +1557,13 @@
         <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>33171</v>
+        <v>30743</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1563,13 +1572,13 @@
         <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>23526</v>
+        <v>21746</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1578,7 +1587,7 @@
         <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>56697</v>
+        <v>52489</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -1599,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>33171</v>
+        <v>30743</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1614,7 +1623,7 @@
         <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>23526</v>
+        <v>21746</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1629,7 +1638,7 @@
         <v>72</v>
       </c>
       <c r="N18" s="7">
-        <v>56697</v>
+        <v>52489</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1643,7 +1652,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1653,39 +1662,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,39 +1707,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,92 +1752,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>23</v>
-      </c>
-      <c r="D22" s="7">
-        <v>27780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
-        <v>42</v>
-      </c>
-      <c r="I22" s="7">
-        <v>32057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
-        <v>65</v>
-      </c>
-      <c r="N22" s="7">
-        <v>59837</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,49 +1840,43 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>564</v>
-      </c>
-      <c r="D23" s="7">
-        <v>679309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
-        <v>971</v>
-      </c>
-      <c r="I23" s="7">
-        <v>723056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M23" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1402365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,63 +1885,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>26491</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7">
+        <v>42</v>
+      </c>
+      <c r="I25" s="7">
+        <v>29437</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="7">
+        <v>65</v>
+      </c>
+      <c r="N25" s="7">
+        <v>55929</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>564</v>
+      </c>
+      <c r="D26" s="7">
+        <v>852928</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="7">
+        <v>971</v>
+      </c>
+      <c r="I26" s="7">
+        <v>665842</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1535</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1518768</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>587</v>
       </c>
-      <c r="D24" s="7">
-        <v>707089</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>879419</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>1013</v>
       </c>
-      <c r="I24" s="7">
-        <v>755113</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>695279</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>1600</v>
       </c>
-      <c r="N24" s="7">
-        <v>1462202</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>102</v>
+      <c r="N27" s="7">
+        <v>1574697</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
